--- a/sheets/rapisadra.xlsx
+++ b/sheets/rapisadra.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\OneDrive\Desktop\chaos\sigma\sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6CE0B1-5742-439D-BC37-60557738B51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83C5CE1-6307-4AB4-B354-9964A552844C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2805" yWindow="2805" windowWidth="21600" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Masterplan" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>KW</t>
   </si>
@@ -178,6 +178,15 @@
   </si>
   <si>
     <t>….</t>
+  </si>
+  <si>
+    <t>Anmerkungen</t>
+  </si>
+  <si>
+    <t>Prüfung (OBA &amp; LB)</t>
+  </si>
+  <si>
+    <t>Prüfung (LB)</t>
   </si>
 </sst>
 </file>
@@ -1292,8 +1301,8 @@
   <dimension ref="A1:V56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
@@ -1357,7 +1366,9 @@
       <c r="F3" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="28"/>
+      <c r="G3" s="28" t="s">
+        <v>33</v>
+      </c>
       <c r="H3" s="27"/>
       <c r="I3" s="43"/>
       <c r="J3" s="43"/>
@@ -2117,7 +2128,10 @@
         <v>295</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>31</v>
+        <v>18</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="17"/>
@@ -2151,7 +2165,9 @@
       <c r="F28" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="16"/>
+      <c r="G28" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="H28" s="13"/>
       <c r="I28" s="17"/>
       <c r="J28" s="15"/>

--- a/sheets/rapisadra.xlsx
+++ b/sheets/rapisadra.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\OneDrive\Desktop\chaos\sigma\sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83C5CE1-6307-4AB4-B354-9964A552844C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A96934-1F4A-4C0D-A4AB-09B0A01A9831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="2805" windowWidth="21600" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Masterplan" sheetId="1" r:id="rId1"/>
@@ -33,51 +33,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={F84E22E6-CD70-4533-9EFF-94F49C06BDC1}</author>
-    <author>tc={7F44340F-68A5-4369-802E-02824564DD12}</author>
-    <author>tc={3DC8C580-79B3-487D-BC23-955992DB1952}</author>
-    <author>tc={D10F7B7F-9F4D-433E-BB20-9AC7819829EA}</author>
-  </authors>
-  <commentList>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{F84E22E6-CD70-4533-9EFF-94F49C06BDC1}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    🎂 Rybicki</t>
-      </text>
-    </comment>
-    <comment ref="G7" authorId="1" shapeId="0" xr:uid="{7F44340F-68A5-4369-802E-02824564DD12}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    🎂 Olmes</t>
-      </text>
-    </comment>
-    <comment ref="G20" authorId="2" shapeId="0" xr:uid="{3DC8C580-79B3-487D-BC23-955992DB1952}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    🎂 Huber</t>
-      </text>
-    </comment>
-    <comment ref="Q49" authorId="3" shapeId="0" xr:uid="{D10F7B7F-9F4D-433E-BB20-9AC7819829EA}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    🎂 Koteski, Tienietilov</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
@@ -196,7 +151,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,12 +262,6 @@
       <name val="LM Roman 10"/>
       <family val="3"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="LM Roman 10"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -340,7 +289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -449,44 +398,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -596,12 +514,6 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -614,28 +526,18 @@
     <xf numFmtId="49" fontId="13" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="13" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -976,9 +878,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Nicola.Colic" id="{546AED49-75D9-4F2F-AE01-3C753031FA6E}" userId="S::Nicola.Colic@bbbaden.ch::9bb3231b-f16f-46b6-a871-3746f182172e" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1276,33 +1176,16 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="G5" dT="2024-08-12T07:28:37.54" personId="{546AED49-75D9-4F2F-AE01-3C753031FA6E}" id="{F84E22E6-CD70-4533-9EFF-94F49C06BDC1}">
-    <text>🎂 Rybicki</text>
-  </threadedComment>
-  <threadedComment ref="G7" dT="2024-08-12T07:29:52.63" personId="{546AED49-75D9-4F2F-AE01-3C753031FA6E}" id="{7F44340F-68A5-4369-802E-02824564DD12}">
-    <text>🎂 Olmes</text>
-  </threadedComment>
-  <threadedComment ref="G20" dT="2024-08-12T07:32:05.69" personId="{546AED49-75D9-4F2F-AE01-3C753031FA6E}" id="{3DC8C580-79B3-487D-BC23-955992DB1952}">
-    <text>🎂 Huber</text>
-  </threadedComment>
-  <threadedComment ref="Q49" dT="2024-08-12T07:31:30.64" personId="{546AED49-75D9-4F2F-AE01-3C753031FA6E}" id="{D10F7B7F-9F4D-433E-BB20-9AC7819829EA}">
-    <text>🎂 Koteski, Tienietilov</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:V56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M23" sqref="M23"/>
+      <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
@@ -1328,12 +1211,18 @@
     <col min="19" max="16384" width="10.7109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="26.25">
+    <row r="1" spans="1:18" ht="26.25">
       <c r="A1" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="10"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -1343,13 +1232,14 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="11"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="11"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1">
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+    </row>
+    <row r="3" spans="1:18" ht="15" customHeight="1">
       <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
@@ -1370,17 +1260,18 @@
         <v>33</v>
       </c>
       <c r="H3" s="27"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="28"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.75">
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="42"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+    </row>
+    <row r="4" spans="1:18" ht="15.75">
       <c r="A4" s="12">
         <v>33</v>
       </c>
@@ -1404,13 +1295,14 @@
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="16"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="16"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.75">
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75">
       <c r="A5" s="12">
         <f>A4+1</f>
         <v>34</v>
@@ -1438,13 +1330,14 @@
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
       <c r="L5" s="16"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="16"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.75">
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+    </row>
+    <row r="6" spans="1:18" ht="15.75">
       <c r="A6" s="12">
         <f t="shared" ref="A6:A55" si="1">A5+1</f>
         <v>35</v>
@@ -1472,13 +1365,14 @@
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="16"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="16"/>
-    </row>
-    <row r="7" spans="1:17" ht="15.75">
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+    </row>
+    <row r="7" spans="1:18" ht="15.75">
       <c r="A7" s="12">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -1506,13 +1400,14 @@
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="16"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16"/>
-    </row>
-    <row r="8" spans="1:17" ht="15.75">
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+    </row>
+    <row r="8" spans="1:18" ht="15.75">
       <c r="A8" s="12">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -1540,13 +1435,14 @@
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="16"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="16"/>
-    </row>
-    <row r="9" spans="1:17" ht="15.75">
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+    </row>
+    <row r="9" spans="1:18" ht="15.75">
       <c r="A9" s="12">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -1574,13 +1470,14 @@
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="16"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="16"/>
-    </row>
-    <row r="10" spans="1:17" ht="15.75">
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+    </row>
+    <row r="10" spans="1:18" ht="15.75">
       <c r="A10" s="12">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -1608,13 +1505,14 @@
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
       <c r="L10" s="16"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="16"/>
-    </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1">
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+    </row>
+    <row r="11" spans="1:18" ht="15" customHeight="1">
       <c r="A11" s="29">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -1623,25 +1521,26 @@
         <f t="shared" si="2"/>
         <v>45568</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="47"/>
-    </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1">
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+    </row>
+    <row r="12" spans="1:18" ht="15" customHeight="1">
       <c r="A12" s="29">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -1650,23 +1549,24 @@
         <f t="shared" si="2"/>
         <v>45575</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="50"/>
-    </row>
-    <row r="13" spans="1:17" ht="15.75">
+      <c r="C12" s="45"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+    </row>
+    <row r="13" spans="1:18" ht="15.75">
       <c r="A13" s="29">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -1675,25 +1575,26 @@
         <f t="shared" si="2"/>
         <v>45582</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="53"/>
-    </row>
-    <row r="14" spans="1:17" ht="15.75">
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+    </row>
+    <row r="14" spans="1:18" ht="15.75">
       <c r="A14" s="12">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -1721,13 +1622,14 @@
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="16"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="16"/>
-    </row>
-    <row r="15" spans="1:17" ht="15.75">
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+    </row>
+    <row r="15" spans="1:18" ht="15.75">
       <c r="A15" s="12">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -1755,13 +1657,14 @@
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
       <c r="L15" s="16"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="16"/>
-    </row>
-    <row r="16" spans="1:17" ht="15.75">
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+    </row>
+    <row r="16" spans="1:18" ht="15.75">
       <c r="A16" s="12">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -1789,11 +1692,12 @@
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="16"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="41"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
     </row>
     <row r="17" spans="1:22" ht="15.75">
       <c r="A17" s="12">
@@ -1823,11 +1727,12 @@
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
       <c r="L17" s="16"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="16"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
     </row>
     <row r="18" spans="1:22" ht="15.75">
       <c r="A18" s="12">
@@ -1857,11 +1762,12 @@
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="16"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="16"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
     </row>
     <row r="19" spans="1:22" ht="15.75">
       <c r="A19" s="12">
@@ -1891,11 +1797,12 @@
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
       <c r="L19" s="16"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="16"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
     </row>
     <row r="20" spans="1:22" ht="15.75">
       <c r="A20" s="12">
@@ -1925,11 +1832,12 @@
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
       <c r="L20" s="16"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="16"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
     </row>
     <row r="21" spans="1:22" ht="15.75">
       <c r="A21" s="12">
@@ -1957,11 +1865,12 @@
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="16"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="16"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
     </row>
     <row r="22" spans="1:22" ht="15.75">
       <c r="A22" s="12">
@@ -1989,11 +1898,12 @@
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
       <c r="L22" s="16"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="16"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
     </row>
     <row r="23" spans="1:22" ht="15" customHeight="1">
       <c r="A23" s="29">
@@ -2004,23 +1914,24 @@
         <f t="shared" si="2"/>
         <v>45652</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="47"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
     </row>
     <row r="24" spans="1:22" ht="15" customHeight="1">
       <c r="A24" s="29">
@@ -2030,21 +1941,22 @@
         <f t="shared" si="2"/>
         <v>45659</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="50"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
     </row>
     <row r="25" spans="1:22" ht="15.75">
       <c r="A25" s="12">
@@ -2072,11 +1984,12 @@
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
       <c r="L25" s="16"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="16"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
     </row>
     <row r="26" spans="1:22" ht="15.75">
       <c r="A26" s="12">
@@ -2104,11 +2017,12 @@
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
       <c r="L26" s="16"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="16"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
     </row>
     <row r="27" spans="1:22" ht="15.75">
       <c r="A27" s="12">
@@ -2138,12 +2052,12 @@
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
       <c r="L27" s="16"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="15"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
     </row>
     <row r="28" spans="1:22" ht="15.75">
       <c r="A28" s="12">
@@ -2173,11 +2087,12 @@
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
       <c r="L28" s="16"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="16"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
     </row>
     <row r="29" spans="1:22" ht="15" customHeight="1">
       <c r="A29" s="29">
@@ -2188,23 +2103,24 @@
         <f t="shared" si="2"/>
         <v>45694</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="47"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
     </row>
     <row r="30" spans="1:22" ht="15.75">
       <c r="A30" s="29">
@@ -2215,21 +2131,22 @@
         <f>B29+7</f>
         <v>45701</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="50"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
       <c r="S30" s="18"/>
       <c r="T30" s="19"/>
       <c r="U30" s="18"/>
@@ -2257,11 +2174,12 @@
       <c r="J31" s="35"/>
       <c r="K31" s="35"/>
       <c r="L31" s="37"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="37"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
       <c r="S31" s="39"/>
       <c r="T31" s="40"/>
       <c r="U31" s="39"/>
@@ -2289,13 +2207,14 @@
       <c r="J32" s="15"/>
       <c r="K32" s="15"/>
       <c r="L32" s="16"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="16"/>
-    </row>
-    <row r="33" spans="1:17" ht="15.75">
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+    </row>
+    <row r="33" spans="1:18" ht="15.75">
       <c r="A33" s="12">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -2317,13 +2236,14 @@
       <c r="J33" s="15"/>
       <c r="K33" s="15"/>
       <c r="L33" s="16"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="16"/>
-    </row>
-    <row r="34" spans="1:17" ht="15.75">
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+    </row>
+    <row r="34" spans="1:18" ht="15.75">
       <c r="A34" s="12">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -2345,13 +2265,14 @@
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
       <c r="L34" s="16"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="16"/>
-    </row>
-    <row r="35" spans="1:17" ht="15.75">
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+    </row>
+    <row r="35" spans="1:18" ht="15.75">
       <c r="A35" s="12">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -2373,13 +2294,14 @@
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
       <c r="L35" s="16"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="16"/>
-    </row>
-    <row r="36" spans="1:17" ht="15.75">
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+    </row>
+    <row r="36" spans="1:18" ht="15.75">
       <c r="A36" s="12">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -2401,13 +2323,14 @@
       <c r="J36" s="15"/>
       <c r="K36" s="15"/>
       <c r="L36" s="16"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="16"/>
-    </row>
-    <row r="37" spans="1:17" ht="15" customHeight="1">
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+    </row>
+    <row r="37" spans="1:18" ht="15" customHeight="1">
       <c r="A37" s="12">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -2428,13 +2351,14 @@
       <c r="J37" s="15"/>
       <c r="K37" s="15"/>
       <c r="L37" s="16"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="16"/>
-    </row>
-    <row r="38" spans="1:17" ht="15" customHeight="1">
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+    </row>
+    <row r="38" spans="1:18" ht="15" customHeight="1">
       <c r="A38" s="29">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -2443,25 +2367,26 @@
         <f t="shared" si="2"/>
         <v>45757</v>
       </c>
-      <c r="C38" s="45" t="s">
+      <c r="C38" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="46"/>
-      <c r="N38" s="46"/>
-      <c r="O38" s="46"/>
-      <c r="P38" s="46"/>
-      <c r="Q38" s="47"/>
-    </row>
-    <row r="39" spans="1:17" ht="15" customHeight="1">
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+    </row>
+    <row r="39" spans="1:18" ht="15" customHeight="1">
       <c r="A39" s="29">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -2470,23 +2395,24 @@
         <f t="shared" si="2"/>
         <v>45764</v>
       </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="49"/>
-      <c r="P39" s="49"/>
-      <c r="Q39" s="50"/>
-    </row>
-    <row r="40" spans="1:17" ht="15.75">
+      <c r="C39" s="45"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+    </row>
+    <row r="40" spans="1:18" ht="15.75">
       <c r="A40" s="12">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -2499,22 +2425,23 @@
         <f t="shared" si="0"/>
         <v>45771</v>
       </c>
-      <c r="D40" s="57"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="59"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="53"/>
       <c r="H40" s="13"/>
       <c r="I40" s="17"/>
       <c r="J40" s="21"/>
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-    </row>
-    <row r="41" spans="1:17" ht="15.75">
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+    </row>
+    <row r="41" spans="1:18" ht="15.75">
       <c r="A41" s="12">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -2536,13 +2463,14 @@
       <c r="J41" s="21"/>
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
-    </row>
-    <row r="42" spans="1:17" ht="15.75">
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+    </row>
+    <row r="42" spans="1:18" ht="15.75">
       <c r="A42" s="12">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -2564,13 +2492,14 @@
       <c r="J42" s="21"/>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-    </row>
-    <row r="43" spans="1:17" ht="15.75">
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+    </row>
+    <row r="43" spans="1:18" ht="15.75">
       <c r="A43" s="12">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2592,13 +2521,14 @@
       <c r="J43" s="23"/>
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
-    </row>
-    <row r="44" spans="1:17" ht="15.75">
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+    </row>
+    <row r="44" spans="1:18" ht="15.75">
       <c r="A44" s="12">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -2620,13 +2550,14 @@
       <c r="J44" s="21"/>
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="15"/>
-    </row>
-    <row r="45" spans="1:17" ht="15.75">
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+    </row>
+    <row r="45" spans="1:18" ht="15.75">
       <c r="A45" s="12">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -2648,13 +2579,14 @@
       <c r="J45" s="21"/>
       <c r="K45" s="15"/>
       <c r="L45" s="15"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="57"/>
-      <c r="O45" s="58"/>
-      <c r="P45" s="58"/>
-      <c r="Q45" s="59"/>
-    </row>
-    <row r="46" spans="1:17" ht="15.75">
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+    </row>
+    <row r="46" spans="1:18" ht="15.75">
       <c r="A46" s="12">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -2676,13 +2608,14 @@
       <c r="J46" s="21"/>
       <c r="K46" s="15"/>
       <c r="L46" s="15"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="15"/>
-      <c r="Q46" s="15"/>
-    </row>
-    <row r="47" spans="1:17" ht="15.75">
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+    </row>
+    <row r="47" spans="1:18" ht="15.75">
       <c r="A47" s="12">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -2695,22 +2628,23 @@
         <f t="shared" si="0"/>
         <v>45820</v>
       </c>
-      <c r="D47" s="57"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="59"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="53"/>
       <c r="H47" s="13"/>
       <c r="I47" s="17"/>
       <c r="J47" s="21"/>
       <c r="K47" s="15"/>
       <c r="L47" s="15"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="15"/>
-    </row>
-    <row r="48" spans="1:17" ht="15.75">
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+    </row>
+    <row r="48" spans="1:18" ht="15.75">
       <c r="A48" s="12">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -2732,13 +2666,14 @@
       <c r="J48" s="21"/>
       <c r="K48" s="15"/>
       <c r="L48" s="15"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="15"/>
-      <c r="Q48" s="15"/>
-    </row>
-    <row r="49" spans="1:17" ht="15.75">
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+    </row>
+    <row r="49" spans="1:18" ht="15.75">
       <c r="A49" s="12">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -2760,13 +2695,14 @@
       <c r="J49" s="21"/>
       <c r="K49" s="15"/>
       <c r="L49" s="15"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="15"/>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="15"/>
-    </row>
-    <row r="50" spans="1:17" ht="15.75">
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+    </row>
+    <row r="50" spans="1:18" ht="15.75">
       <c r="A50" s="29">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -2775,25 +2711,26 @@
         <f t="shared" si="2"/>
         <v>45841</v>
       </c>
-      <c r="C50" s="51" t="s">
+      <c r="C50" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="52"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="52"/>
-      <c r="J50" s="52"/>
-      <c r="K50" s="52"/>
-      <c r="L50" s="52"/>
-      <c r="M50" s="52"/>
-      <c r="N50" s="52"/>
-      <c r="O50" s="52"/>
-      <c r="P50" s="52"/>
-      <c r="Q50" s="53"/>
-    </row>
-    <row r="51" spans="1:17" ht="15" customHeight="1">
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="48"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+    </row>
+    <row r="51" spans="1:18" ht="15" customHeight="1">
       <c r="A51" s="29">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -2802,25 +2739,26 @@
         <f t="shared" si="2"/>
         <v>45848</v>
       </c>
-      <c r="C51" s="45" t="s">
+      <c r="C51" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="46"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="46"/>
-      <c r="J51" s="46"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="46"/>
-      <c r="M51" s="46"/>
-      <c r="N51" s="46"/>
-      <c r="O51" s="46"/>
-      <c r="P51" s="46"/>
-      <c r="Q51" s="47"/>
-    </row>
-    <row r="52" spans="1:17" ht="15" customHeight="1">
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+    </row>
+    <row r="52" spans="1:18" ht="15" customHeight="1">
       <c r="A52" s="29">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -2829,23 +2767,24 @@
         <f t="shared" si="2"/>
         <v>45855</v>
       </c>
-      <c r="C52" s="54"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="55"/>
-      <c r="J52" s="55"/>
-      <c r="K52" s="55"/>
-      <c r="L52" s="55"/>
-      <c r="M52" s="55"/>
-      <c r="N52" s="55"/>
-      <c r="O52" s="55"/>
-      <c r="P52" s="55"/>
-      <c r="Q52" s="56"/>
-    </row>
-    <row r="53" spans="1:17" ht="15" customHeight="1">
+      <c r="C52" s="49"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="50"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+    </row>
+    <row r="53" spans="1:18" ht="15" customHeight="1">
       <c r="A53" s="29">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -2854,23 +2793,24 @@
         <f t="shared" si="2"/>
         <v>45862</v>
       </c>
-      <c r="C53" s="54"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="55"/>
-      <c r="H53" s="55"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="55"/>
-      <c r="K53" s="55"/>
-      <c r="L53" s="55"/>
-      <c r="M53" s="55"/>
-      <c r="N53" s="55"/>
-      <c r="O53" s="55"/>
-      <c r="P53" s="55"/>
-      <c r="Q53" s="56"/>
-    </row>
-    <row r="54" spans="1:17" ht="15" customHeight="1">
+      <c r="C53" s="49"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="50"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+    </row>
+    <row r="54" spans="1:18" ht="15" customHeight="1">
       <c r="A54" s="29">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -2879,23 +2819,24 @@
         <f t="shared" si="2"/>
         <v>45869</v>
       </c>
-      <c r="C54" s="54"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="55"/>
-      <c r="J54" s="55"/>
-      <c r="K54" s="55"/>
-      <c r="L54" s="55"/>
-      <c r="M54" s="55"/>
-      <c r="N54" s="55"/>
-      <c r="O54" s="55"/>
-      <c r="P54" s="55"/>
-      <c r="Q54" s="56"/>
-    </row>
-    <row r="55" spans="1:17" ht="15" customHeight="1">
+      <c r="C54" s="49"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="50"/>
+      <c r="L54" s="50"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+    </row>
+    <row r="55" spans="1:18" ht="15" customHeight="1">
       <c r="A55" s="29">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -2904,23 +2845,24 @@
         <f t="shared" si="2"/>
         <v>45876</v>
       </c>
-      <c r="C55" s="48"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="49"/>
-      <c r="K55" s="49"/>
-      <c r="L55" s="49"/>
-      <c r="M55" s="49"/>
-      <c r="N55" s="49"/>
-      <c r="O55" s="49"/>
-      <c r="P55" s="49"/>
-      <c r="Q55" s="50"/>
-    </row>
-    <row r="56" spans="1:17" ht="15.75">
+      <c r="C55" s="45"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="46"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+    </row>
+    <row r="56" spans="1:18" ht="15.75">
       <c r="E56" s="19"/>
       <c r="F56" s="19"/>
       <c r="G56" s="18"/>
@@ -2929,15 +2871,16 @@
       <c r="J56" s="19"/>
       <c r="K56" s="19"/>
       <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="18"/>
-      <c r="O56" s="19"/>
-      <c r="P56" s="19"/>
-      <c r="Q56" s="18"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="F4:F10 P14:P17 P19:P22">
+  <conditionalFormatting sqref="F4:F10">
     <cfRule type="containsText" dxfId="29" priority="129" operator="containsText" text="DL">
       <formula>NOT(ISERROR(SEARCH("DL",F4)))</formula>
     </cfRule>
@@ -3025,41 +2968,8 @@
       <formula>NOT(ISERROR(SEARCH("PLO",K40)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P4:P10">
-    <cfRule type="containsText" dxfId="7" priority="65" operator="containsText" text="DL">
-      <formula>NOT(ISERROR(SEARCH("DL",P4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="66" operator="containsText" text="PLO">
-      <formula>NOT(ISERROR(SEARCH("PLO",P4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P25:P28">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="DL">
-      <formula>NOT(ISERROR(SEARCH("DL",P25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="PLO">
-      <formula>NOT(ISERROR(SEARCH("PLO",P25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P31:P37">
-    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="DL">
-      <formula>NOT(ISERROR(SEARCH("DL",P31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="14" operator="containsText" text="PLO">
-      <formula>NOT(ISERROR(SEARCH("PLO",P31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P40:P44 P46:P49">
-    <cfRule type="containsText" dxfId="1" priority="57" operator="containsText" text="DL">
-      <formula>NOT(ISERROR(SEARCH("DL",P40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="58" operator="containsText" text="PLO">
-      <formula>NOT(ISERROR(SEARCH("PLO",P40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -3067,7 +2977,7 @@
           <x14:formula1>
             <xm:f>Lernformen!$B$3:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F4:F10 K14:K22 F14:F22 P19:P22 P40:P44 K4:K10 P14:P17 K40:K49 K25:K28 P4:P10 P46:P49 K31:K37 P31:P37</xm:sqref>
+          <xm:sqref>F4:F10 K14:K22 F14:F22 P46:P49 P40:P44 K4:K10 K31:K37 K40:K49 K25:K28 P31:P37</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{06C1580E-5AFB-4A7C-9113-6530E7B21D32}">
           <x14:formula1>
@@ -3165,10 +3075,10 @@
       <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="54" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3179,6 +3089,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f623eb36-e09d-4262-8e82-8bdef17c0a1d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="12d55486-500d-4026-8344-9329d1f6ef49">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010005F4C1567D3C2D4D847AFC93AAC4B047" ma:contentTypeVersion="12" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="785aa3df62c65c7ae11a7cb6ee1cca39">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="12d55486-500d-4026-8344-9329d1f6ef49" xmlns:ns3="f623eb36-e09d-4262-8e82-8bdef17c0a1d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="743b9273748ea172f36d79896c3e17cb" ns2:_="" ns3:_="">
     <xsd:import namespace="12d55486-500d-4026-8344-9329d1f6ef49"/>
@@ -3379,41 +3309,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f623eb36-e09d-4262-8e82-8bdef17c0a1d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="12d55486-500d-4026-8344-9329d1f6ef49">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{083B4A53-2F28-4EA5-A02E-B1B1D641CAB2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EAD0523-541D-4D5E-8A8E-693E501F75DA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="12d55486-500d-4026-8344-9329d1f6ef49"/>
-    <ds:schemaRef ds:uri="f623eb36-e09d-4262-8e82-8bdef17c0a1d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3436,9 +3335,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EAD0523-541D-4D5E-8A8E-693E501F75DA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{083B4A53-2F28-4EA5-A02E-B1B1D641CAB2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="12d55486-500d-4026-8344-9329d1f6ef49"/>
+    <ds:schemaRef ds:uri="f623eb36-e09d-4262-8e82-8bdef17c0a1d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/sheets/rapisadra.xlsx
+++ b/sheets/rapisadra.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A96934-1F4A-4C0D-A4AB-09B0A01A9831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0D8F01-37F6-4924-BE7D-CFDDB946E7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Masterplan" sheetId="1" r:id="rId1"/>
@@ -558,87 +558,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -875,10 +795,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1185,7 +1101,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q18" sqref="Q18"/>
+      <selection pane="bottomLeft" activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
@@ -2077,7 +1993,7 @@
         <v>295</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G28" s="16" t="s">
         <v>35</v>
@@ -2881,90 +2797,90 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="F4:F10">
-    <cfRule type="containsText" dxfId="29" priority="129" operator="containsText" text="DL">
+    <cfRule type="containsText" dxfId="21" priority="129" operator="containsText" text="DL">
       <formula>NOT(ISERROR(SEARCH("DL",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="130" operator="containsText" text="PLO">
+    <cfRule type="containsText" dxfId="20" priority="130" operator="containsText" text="PLO">
       <formula>NOT(ISERROR(SEARCH("PLO",F4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F22">
-    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="DL">
+    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="DL">
       <formula>NOT(ISERROR(SEARCH("DL",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="12" operator="containsText" text="PLO">
+    <cfRule type="containsText" dxfId="18" priority="12" operator="containsText" text="PLO">
       <formula>NOT(ISERROR(SEARCH("PLO",F14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:F28">
-    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="DL">
+    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="DL">
       <formula>NOT(ISERROR(SEARCH("DL",F25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="10" operator="containsText" text="PLO">
+    <cfRule type="containsText" dxfId="16" priority="10" operator="containsText" text="PLO">
       <formula>NOT(ISERROR(SEARCH("PLO",F25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31:F37">
-    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="DL">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="DL">
       <formula>NOT(ISERROR(SEARCH("DL",F31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="PLO">
+    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="PLO">
       <formula>NOT(ISERROR(SEARCH("PLO",F31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:F46">
-    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="DL">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="DL">
       <formula>NOT(ISERROR(SEARCH("DL",F41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="PLO">
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="PLO">
       <formula>NOT(ISERROR(SEARCH("PLO",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:F49">
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="DL">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="DL">
       <formula>NOT(ISERROR(SEARCH("DL",F48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="PLO">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="PLO">
       <formula>NOT(ISERROR(SEARCH("PLO",F48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K10">
-    <cfRule type="containsText" dxfId="17" priority="27" operator="containsText" text="DL">
+    <cfRule type="containsText" dxfId="9" priority="27" operator="containsText" text="DL">
       <formula>NOT(ISERROR(SEARCH("DL",K4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="28" operator="containsText" text="PLO">
+    <cfRule type="containsText" dxfId="8" priority="28" operator="containsText" text="PLO">
       <formula>NOT(ISERROR(SEARCH("PLO",K4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:K22">
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="DL">
+    <cfRule type="containsText" dxfId="7" priority="17" operator="containsText" text="DL">
       <formula>NOT(ISERROR(SEARCH("DL",K14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="PLO">
+    <cfRule type="containsText" dxfId="6" priority="18" operator="containsText" text="PLO">
       <formula>NOT(ISERROR(SEARCH("PLO",K14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:K28">
-    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="DL">
+    <cfRule type="containsText" dxfId="5" priority="23" operator="containsText" text="DL">
       <formula>NOT(ISERROR(SEARCH("DL",K25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="24" operator="containsText" text="PLO">
+    <cfRule type="containsText" dxfId="4" priority="24" operator="containsText" text="PLO">
       <formula>NOT(ISERROR(SEARCH("PLO",K25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:K37">
-    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="DL">
+    <cfRule type="containsText" dxfId="3" priority="21" operator="containsText" text="DL">
       <formula>NOT(ISERROR(SEARCH("DL",K31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="22" operator="containsText" text="PLO">
+    <cfRule type="containsText" dxfId="2" priority="22" operator="containsText" text="PLO">
       <formula>NOT(ISERROR(SEARCH("PLO",K31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40:K49">
-    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="DL">
+    <cfRule type="containsText" dxfId="1" priority="19" operator="containsText" text="DL">
       <formula>NOT(ISERROR(SEARCH("DL",K40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="20" operator="containsText" text="PLO">
+    <cfRule type="containsText" dxfId="0" priority="20" operator="containsText" text="PLO">
       <formula>NOT(ISERROR(SEARCH("PLO",K40)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3098,17 +3014,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f623eb36-e09d-4262-8e82-8bdef17c0a1d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="12d55486-500d-4026-8344-9329d1f6ef49">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010005F4C1567D3C2D4D847AFC93AAC4B047" ma:contentTypeVersion="12" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="785aa3df62c65c7ae11a7cb6ee1cca39">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="12d55486-500d-4026-8344-9329d1f6ef49" xmlns:ns3="f623eb36-e09d-4262-8e82-8bdef17c0a1d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="743b9273748ea172f36d79896c3e17cb" ns2:_="" ns3:_="">
     <xsd:import namespace="12d55486-500d-4026-8344-9329d1f6ef49"/>
@@ -3309,6 +3214,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f623eb36-e09d-4262-8e82-8bdef17c0a1d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="12d55486-500d-4026-8344-9329d1f6ef49">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EAD0523-541D-4D5E-8A8E-693E501F75DA}">
   <ds:schemaRefs>
@@ -3318,23 +3234,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D9C7833-16CE-46EF-875D-321A76CB25C1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="f623eb36-e09d-4262-8e82-8bdef17c0a1d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="12d55486-500d-4026-8344-9329d1f6ef49"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{083B4A53-2F28-4EA5-A02E-B1B1D641CAB2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3351,4 +3250,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D9C7833-16CE-46EF-875D-321A76CB25C1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="f623eb36-e09d-4262-8e82-8bdef17c0a1d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="12d55486-500d-4026-8344-9329d1f6ef49"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/sheets/rapisadra.xlsx
+++ b/sheets/rapisadra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0D8F01-37F6-4924-BE7D-CFDDB946E7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD12692-1A4F-4E1E-B715-C121988348B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
   <si>
     <t>KW</t>
   </si>
@@ -1101,7 +1101,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M26" sqref="M26"/>
+      <selection pane="bottomLeft" activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
@@ -2082,8 +2082,12 @@
         <v>45708</v>
       </c>
       <c r="D31" s="34"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
+      <c r="E31" s="35">
+        <v>295</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>18</v>
+      </c>
       <c r="G31" s="35"/>
       <c r="H31" s="33"/>
       <c r="I31" s="36"/>
@@ -3005,12 +3009,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f623eb36-e09d-4262-8e82-8bdef17c0a1d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="12d55486-500d-4026-8344-9329d1f6ef49">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3215,20 +3221,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f623eb36-e09d-4262-8e82-8bdef17c0a1d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="12d55486-500d-4026-8344-9329d1f6ef49">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EAD0523-541D-4D5E-8A8E-693E501F75DA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D9C7833-16CE-46EF-875D-321A76CB25C1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="f623eb36-e09d-4262-8e82-8bdef17c0a1d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="12d55486-500d-4026-8344-9329d1f6ef49"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3253,18 +3266,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D9C7833-16CE-46EF-875D-321A76CB25C1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EAD0523-541D-4D5E-8A8E-693E501F75DA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="f623eb36-e09d-4262-8e82-8bdef17c0a1d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="12d55486-500d-4026-8344-9329d1f6ef49"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/sheets/rapisadra.xlsx
+++ b/sheets/rapisadra.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\OneDrive\Desktop\projects\Habenwirmorgenopl.info\sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD12692-1A4F-4E1E-B715-C121988348B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1115BEFB-7F36-4204-9EF1-AFE327954530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
   <si>
     <t>KW</t>
   </si>
@@ -1101,7 +1101,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N27" sqref="N27"/>
+      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
@@ -2119,8 +2119,12 @@
         <v>45715</v>
       </c>
       <c r="D32" s="14"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
+      <c r="E32" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="G32" s="15"/>
       <c r="H32" s="13"/>
       <c r="I32" s="17"/>
@@ -3009,14 +3013,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f623eb36-e09d-4262-8e82-8bdef17c0a1d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="12d55486-500d-4026-8344-9329d1f6ef49">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3221,27 +3223,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f623eb36-e09d-4262-8e82-8bdef17c0a1d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="12d55486-500d-4026-8344-9329d1f6ef49">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D9C7833-16CE-46EF-875D-321A76CB25C1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EAD0523-541D-4D5E-8A8E-693E501F75DA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="f623eb36-e09d-4262-8e82-8bdef17c0a1d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="12d55486-500d-4026-8344-9329d1f6ef49"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3266,9 +3261,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EAD0523-541D-4D5E-8A8E-693E501F75DA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D9C7833-16CE-46EF-875D-321A76CB25C1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="f623eb36-e09d-4262-8e82-8bdef17c0a1d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="12d55486-500d-4026-8344-9329d1f6ef49"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/sheets/rapisadra.xlsx
+++ b/sheets/rapisadra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\OneDrive\Desktop\projects\Habenwirmorgenopl.info\sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1115BEFB-7F36-4204-9EF1-AFE327954530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED346E84-CAE1-4DB4-BFFB-2B90C405FD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>KW</t>
   </si>
@@ -1101,7 +1101,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
@@ -2119,8 +2119,8 @@
         <v>45715</v>
       </c>
       <c r="D32" s="14"/>
-      <c r="E32" s="15" t="s">
-        <v>31</v>
+      <c r="E32" s="15">
+        <v>426</v>
       </c>
       <c r="F32" s="15" t="s">
         <v>18</v>
@@ -2152,8 +2152,12 @@
         <v>45722</v>
       </c>
       <c r="D33" s="14"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
+      <c r="E33" s="15">
+        <v>426</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="G33" s="15"/>
       <c r="H33" s="13"/>
       <c r="I33" s="17"/>
@@ -2181,8 +2185,12 @@
         <v>45729</v>
       </c>
       <c r="D34" s="14"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
+      <c r="E34" s="15">
+        <v>426</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="G34" s="15"/>
       <c r="H34" s="13"/>
       <c r="I34" s="17"/>
@@ -2210,8 +2218,12 @@
         <v>45736</v>
       </c>
       <c r="D35" s="14"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
+      <c r="E35" s="15">
+        <v>426</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="G35" s="16"/>
       <c r="H35" s="13"/>
       <c r="I35" s="20"/>
@@ -2239,8 +2251,12 @@
         <v>45743</v>
       </c>
       <c r="D36" s="14"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
+      <c r="E36" s="15">
+        <v>426</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="G36" s="16"/>
       <c r="H36" s="13"/>
       <c r="I36" s="20"/>
@@ -2268,8 +2284,12 @@
         <v>45750</v>
       </c>
       <c r="D37" s="14"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
+      <c r="E37" s="15">
+        <v>426</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="H37" s="13"/>
       <c r="I37" s="20"/>
       <c r="J37" s="15"/>
@@ -3013,12 +3033,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f623eb36-e09d-4262-8e82-8bdef17c0a1d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="12d55486-500d-4026-8344-9329d1f6ef49">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3223,20 +3245,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f623eb36-e09d-4262-8e82-8bdef17c0a1d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="12d55486-500d-4026-8344-9329d1f6ef49">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EAD0523-541D-4D5E-8A8E-693E501F75DA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D9C7833-16CE-46EF-875D-321A76CB25C1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="f623eb36-e09d-4262-8e82-8bdef17c0a1d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="12d55486-500d-4026-8344-9329d1f6ef49"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3261,18 +3290,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D9C7833-16CE-46EF-875D-321A76CB25C1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EAD0523-541D-4D5E-8A8E-693E501F75DA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="f623eb36-e09d-4262-8e82-8bdef17c0a1d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="12d55486-500d-4026-8344-9329d1f6ef49"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/sheets/rapisadra.xlsx
+++ b/sheets/rapisadra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\OneDrive\Desktop\projects\Habenwirmorgenopl.info\sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED346E84-CAE1-4DB4-BFFB-2B90C405FD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD1C8A4-206A-48CC-8D57-5B1E5927BF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1101,7 +1101,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
@@ -2156,7 +2156,7 @@
         <v>426</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="13"/>
@@ -2189,7 +2189,7 @@
         <v>426</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="13"/>
@@ -2222,7 +2222,7 @@
         <v>426</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G35" s="16"/>
       <c r="H35" s="13"/>
@@ -2255,7 +2255,7 @@
         <v>426</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G36" s="16"/>
       <c r="H36" s="13"/>
@@ -2288,7 +2288,7 @@
         <v>426</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="20"/>
@@ -3033,14 +3033,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f623eb36-e09d-4262-8e82-8bdef17c0a1d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="12d55486-500d-4026-8344-9329d1f6ef49">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3245,27 +3243,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f623eb36-e09d-4262-8e82-8bdef17c0a1d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="12d55486-500d-4026-8344-9329d1f6ef49">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D9C7833-16CE-46EF-875D-321A76CB25C1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EAD0523-541D-4D5E-8A8E-693E501F75DA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="f623eb36-e09d-4262-8e82-8bdef17c0a1d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="12d55486-500d-4026-8344-9329d1f6ef49"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3290,9 +3281,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EAD0523-541D-4D5E-8A8E-693E501F75DA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D9C7833-16CE-46EF-875D-321A76CB25C1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="f623eb36-e09d-4262-8e82-8bdef17c0a1d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="12d55486-500d-4026-8344-9329d1f6ef49"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/sheets/rapisadra.xlsx
+++ b/sheets/rapisadra.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\OneDrive\Desktop\projects\Habenwirmorgenopl.info\sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0D8F01-37F6-4924-BE7D-CFDDB946E7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD1C8A4-206A-48CC-8D57-5B1E5927BF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>KW</t>
   </si>
@@ -1101,7 +1101,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M26" sqref="M26"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
@@ -2082,8 +2082,12 @@
         <v>45708</v>
       </c>
       <c r="D31" s="34"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
+      <c r="E31" s="35">
+        <v>295</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>18</v>
+      </c>
       <c r="G31" s="35"/>
       <c r="H31" s="33"/>
       <c r="I31" s="36"/>
@@ -2115,8 +2119,12 @@
         <v>45715</v>
       </c>
       <c r="D32" s="14"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
+      <c r="E32" s="15">
+        <v>426</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="G32" s="15"/>
       <c r="H32" s="13"/>
       <c r="I32" s="17"/>
@@ -2144,8 +2152,12 @@
         <v>45722</v>
       </c>
       <c r="D33" s="14"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
+      <c r="E33" s="15">
+        <v>426</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="G33" s="15"/>
       <c r="H33" s="13"/>
       <c r="I33" s="17"/>
@@ -2173,8 +2185,12 @@
         <v>45729</v>
       </c>
       <c r="D34" s="14"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
+      <c r="E34" s="15">
+        <v>426</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="G34" s="15"/>
       <c r="H34" s="13"/>
       <c r="I34" s="17"/>
@@ -2202,8 +2218,12 @@
         <v>45736</v>
       </c>
       <c r="D35" s="14"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
+      <c r="E35" s="15">
+        <v>426</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="G35" s="16"/>
       <c r="H35" s="13"/>
       <c r="I35" s="20"/>
@@ -2231,8 +2251,12 @@
         <v>45743</v>
       </c>
       <c r="D36" s="14"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
+      <c r="E36" s="15">
+        <v>426</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="G36" s="16"/>
       <c r="H36" s="13"/>
       <c r="I36" s="20"/>
@@ -2260,8 +2284,12 @@
         <v>45750</v>
       </c>
       <c r="D37" s="14"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
+      <c r="E37" s="15">
+        <v>426</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="H37" s="13"/>
       <c r="I37" s="20"/>
       <c r="J37" s="15"/>

--- a/sheets/rapisadra.xlsx
+++ b/sheets/rapisadra.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\OneDrive\Desktop\projects\Habenwirmorgenopl.info\sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Desktop\projects\finished\habenwirmorgenopl.info\Habenwirmorgenopl.info\sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD1C8A4-206A-48CC-8D57-5B1E5927BF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECC1545-00A7-45C3-83CE-569FBB5AC250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Masterplan" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>KW</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>№</t>
-  </si>
-  <si>
-    <t>Einstieg</t>
   </si>
   <si>
     <t>Form</t>
@@ -1099,9 +1096,9 @@
   </sheetPr>
   <dimension ref="A1:V56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
@@ -1129,7 +1126,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="26.25">
       <c r="A1" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M1"/>
       <c r="N1"/>
@@ -1170,10 +1167,10 @@
         <v>25</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" s="27"/>
       <c r="I3" s="41"/>
@@ -1199,12 +1196,8 @@
         <v>45519</v>
       </c>
       <c r="D4" s="14"/>
-      <c r="E4" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>18</v>
-      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="16"/>
       <c r="H4" s="13"/>
       <c r="I4" s="14"/>
@@ -1234,12 +1227,8 @@
       <c r="D5" s="14">
         <v>1</v>
       </c>
-      <c r="E5" s="15">
-        <v>231</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>18</v>
-      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="16"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14"/>
@@ -1269,12 +1258,8 @@
       <c r="D6" s="14">
         <v>2</v>
       </c>
-      <c r="E6" s="15">
-        <v>231</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>18</v>
-      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
       <c r="G6" s="16"/>
       <c r="H6" s="13"/>
       <c r="I6" s="14"/>
@@ -1304,12 +1289,8 @@
       <c r="D7" s="14">
         <v>3</v>
       </c>
-      <c r="E7" s="15">
-        <v>231</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>21</v>
-      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="16"/>
       <c r="H7" s="13"/>
       <c r="I7" s="14"/>
@@ -1339,12 +1320,8 @@
       <c r="D8" s="14">
         <v>4</v>
       </c>
-      <c r="E8" s="15">
-        <v>231</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>18</v>
-      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="13"/>
       <c r="I8" s="14"/>
@@ -1374,12 +1351,8 @@
       <c r="D9" s="14">
         <v>5</v>
       </c>
-      <c r="E9" s="15">
-        <v>231</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>20</v>
-      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="13"/>
       <c r="I9" s="14"/>
@@ -1409,12 +1382,8 @@
       <c r="D10" s="14">
         <v>6</v>
       </c>
-      <c r="E10" s="15">
-        <v>231</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>21</v>
-      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="31"/>
       <c r="H10" s="13"/>
       <c r="I10" s="14"/>
@@ -1526,12 +1495,8 @@
       <c r="D14" s="14">
         <v>1</v>
       </c>
-      <c r="E14" s="15">
-        <v>346</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>18</v>
-      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="13"/>
       <c r="I14" s="17"/>
@@ -1561,12 +1526,8 @@
       <c r="D15" s="14">
         <v>2</v>
       </c>
-      <c r="E15" s="15">
-        <v>346</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>18</v>
-      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="13"/>
       <c r="I15" s="17"/>
@@ -1596,12 +1557,8 @@
       <c r="D16" s="14">
         <v>3</v>
       </c>
-      <c r="E16" s="15">
-        <v>346</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>21</v>
-      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="13"/>
       <c r="I16" s="17"/>
@@ -1631,12 +1588,8 @@
       <c r="D17" s="14">
         <v>4</v>
       </c>
-      <c r="E17" s="15">
-        <v>346</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>18</v>
-      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="13"/>
       <c r="I17" s="17"/>
@@ -1666,12 +1619,8 @@
       <c r="D18" s="14">
         <v>5</v>
       </c>
-      <c r="E18" s="15">
-        <v>346</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>18</v>
-      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="13"/>
       <c r="I18" s="17"/>
@@ -1701,12 +1650,8 @@
       <c r="D19" s="14">
         <v>6</v>
       </c>
-      <c r="E19" s="15">
-        <v>346</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>21</v>
-      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="13"/>
       <c r="I19" s="17"/>
@@ -1736,12 +1681,8 @@
       <c r="D20" s="14">
         <v>7</v>
       </c>
-      <c r="E20" s="15">
-        <v>346</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>20</v>
-      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="16"/>
       <c r="H20" s="13"/>
       <c r="I20" s="17"/>
@@ -1770,7 +1711,7 @@
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15">
-        <v>347</v>
+        <v>295</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>18</v>
@@ -1803,10 +1744,10 @@
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="15">
-        <v>347</v>
+        <v>295</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="13"/>
@@ -1961,7 +1902,7 @@
         <v>18</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="17"/>
@@ -1996,7 +1937,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="17"/>
@@ -3014,16 +2955,16 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="54" t="s">
         <v>31</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3033,12 +2974,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f623eb36-e09d-4262-8e82-8bdef17c0a1d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="12d55486-500d-4026-8344-9329d1f6ef49">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3243,20 +3186,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f623eb36-e09d-4262-8e82-8bdef17c0a1d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="12d55486-500d-4026-8344-9329d1f6ef49">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EAD0523-541D-4D5E-8A8E-693E501F75DA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D9C7833-16CE-46EF-875D-321A76CB25C1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="f623eb36-e09d-4262-8e82-8bdef17c0a1d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="12d55486-500d-4026-8344-9329d1f6ef49"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3281,18 +3231,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D9C7833-16CE-46EF-875D-321A76CB25C1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EAD0523-541D-4D5E-8A8E-693E501F75DA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="f623eb36-e09d-4262-8e82-8bdef17c0a1d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="12d55486-500d-4026-8344-9329d1f6ef49"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>